--- a/Code/Results/Cases/Case_13_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_13_1/res_line/loading_percent.xlsx
@@ -427,28 +427,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.49266632314295</v>
+        <v>21.24434529525963</v>
       </c>
       <c r="C2">
-        <v>18.96828366782543</v>
+        <v>15.98798310421177</v>
       </c>
       <c r="D2">
-        <v>4.333588960490924</v>
+        <v>3.901488561645881</v>
       </c>
       <c r="E2">
-        <v>29.21382029618269</v>
+        <v>29.33630424589722</v>
       </c>
       <c r="F2">
-        <v>18.59124872237463</v>
+        <v>21.19244645375618</v>
       </c>
       <c r="G2">
-        <v>2.071584505415577</v>
+        <v>2.068328951829761</v>
       </c>
       <c r="H2">
-        <v>3.159216038339132</v>
+        <v>3.23582982603127</v>
       </c>
       <c r="I2">
-        <v>3.138252493947185</v>
+        <v>3.346455671044311</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>11.7678710571247</v>
       </c>
       <c r="Q2">
-        <v>14.5687144452271</v>
+        <v>16.6519096887458</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,28 +480,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.88573587628169</v>
+        <v>19.83404491452785</v>
       </c>
       <c r="C3">
-        <v>17.85725570160992</v>
+        <v>15.06083541376267</v>
       </c>
       <c r="D3">
-        <v>4.196859081625459</v>
+        <v>3.796144748385419</v>
       </c>
       <c r="E3">
-        <v>27.32102133038484</v>
+        <v>27.45330212399358</v>
       </c>
       <c r="F3">
-        <v>18.00587086705919</v>
+        <v>20.3309374745291</v>
       </c>
       <c r="G3">
-        <v>2.076468730828436</v>
+        <v>2.07297968463036</v>
       </c>
       <c r="H3">
-        <v>2.90028629522092</v>
+        <v>2.982130108109396</v>
       </c>
       <c r="I3">
-        <v>2.942540537153831</v>
+        <v>3.168475253322779</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>11.85923295924826</v>
       </c>
       <c r="Q3">
-        <v>14.3407332244305</v>
+        <v>16.1666207780694</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,28 +533,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.83970279736576</v>
+        <v>18.91300103090603</v>
       </c>
       <c r="C4">
-        <v>17.14498019991685</v>
+        <v>14.46560476936423</v>
       </c>
       <c r="D4">
-        <v>4.110482788901874</v>
+        <v>3.729274292747749</v>
       </c>
       <c r="E4">
-        <v>26.09414241005118</v>
+        <v>26.23278851326196</v>
       </c>
       <c r="F4">
-        <v>17.64924845131027</v>
+        <v>19.792866582613</v>
       </c>
       <c r="G4">
-        <v>2.07955589531849</v>
+        <v>2.07592495572274</v>
       </c>
       <c r="H4">
-        <v>2.735997085624268</v>
+        <v>2.820997640627038</v>
       </c>
       <c r="I4">
-        <v>2.819518945045894</v>
+        <v>3.056221160496542</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>11.91791939148089</v>
       </c>
       <c r="Q4">
-        <v>14.2082728333152</v>
+        <v>15.86810596097616</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,28 +586,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.39827057864807</v>
+        <v>18.51737395584194</v>
       </c>
       <c r="C5">
-        <v>16.86313572588381</v>
+        <v>14.22662462568218</v>
       </c>
       <c r="D5">
-        <v>4.076836119671445</v>
+        <v>3.702647104088578</v>
       </c>
       <c r="E5">
-        <v>25.57764346556439</v>
+        <v>25.71893596989928</v>
       </c>
       <c r="F5">
-        <v>17.49084442949468</v>
+        <v>19.56228696292059</v>
       </c>
       <c r="G5">
-        <v>2.080842831687721</v>
+        <v>2.077155587032032</v>
       </c>
       <c r="H5">
-        <v>2.667542724177149</v>
+        <v>2.75378960930067</v>
       </c>
       <c r="I5">
-        <v>2.769161091993968</v>
+        <v>3.010004753504221</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>11.943404496475</v>
       </c>
       <c r="Q5">
-        <v>14.14526399565041</v>
+        <v>15.73893713464746</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,28 +639,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.32384007689132</v>
+        <v>18.44304980382731</v>
       </c>
       <c r="C6">
-        <v>16.8353225505169</v>
+        <v>14.198826641894</v>
       </c>
       <c r="D6">
-        <v>4.073836145152685</v>
+        <v>3.699614661890565</v>
       </c>
       <c r="E6">
-        <v>25.49061016046219</v>
+        <v>25.63228342230575</v>
       </c>
       <c r="F6">
-        <v>17.44754621655228</v>
+        <v>19.51249521288196</v>
       </c>
       <c r="G6">
-        <v>2.081065407239584</v>
+        <v>2.077370327591373</v>
       </c>
       <c r="H6">
-        <v>2.655917759783867</v>
+        <v>2.742335900622129</v>
       </c>
       <c r="I6">
-        <v>2.761577121908168</v>
+        <v>3.002823975041709</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>11.94882197734478</v>
       </c>
       <c r="Q6">
-        <v>14.12160564649061</v>
+        <v>15.70830475881949</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,28 +692,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.83321247646425</v>
+        <v>18.88696306560646</v>
       </c>
       <c r="C7">
-        <v>17.19321626836599</v>
+        <v>14.49524762205506</v>
       </c>
       <c r="D7">
-        <v>4.117147111988736</v>
+        <v>3.732781708952662</v>
       </c>
       <c r="E7">
-        <v>26.08648815999262</v>
+        <v>26.2249901650297</v>
       </c>
       <c r="F7">
-        <v>17.60102890494004</v>
+        <v>19.75907531799321</v>
       </c>
       <c r="G7">
-        <v>2.079593170369083</v>
+        <v>2.075965619517161</v>
       </c>
       <c r="H7">
-        <v>2.734610986851889</v>
+        <v>2.819531202845754</v>
       </c>
       <c r="I7">
-        <v>2.820713870448712</v>
+        <v>3.056754298870644</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>11.92148074146381</v>
       </c>
       <c r="Q7">
-        <v>14.17126314780701</v>
+        <v>15.841509031171</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,28 +745,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.95016255225594</v>
+        <v>20.74412174701266</v>
       </c>
       <c r="C8">
-        <v>18.65577656276812</v>
+        <v>15.71431410343474</v>
       </c>
       <c r="D8">
-        <v>4.296175493917771</v>
+        <v>3.870664877140791</v>
       </c>
       <c r="E8">
-        <v>28.57366895627258</v>
+        <v>28.69922864952596</v>
       </c>
       <c r="F8">
-        <v>18.33033639464374</v>
+        <v>20.85879796876124</v>
       </c>
       <c r="G8">
-        <v>2.073275125169522</v>
+        <v>2.069944485621055</v>
       </c>
       <c r="H8">
-        <v>3.070445310790362</v>
+        <v>3.14873931336443</v>
       </c>
       <c r="I8">
-        <v>3.073227600650782</v>
+        <v>3.286764084671139</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>11.80347848797396</v>
       </c>
       <c r="Q8">
-        <v>14.44169348795232</v>
+        <v>16.45301393072154</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,28 +798,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.63402988064382</v>
+        <v>23.9847716862231</v>
       </c>
       <c r="C9">
-        <v>21.197725204966</v>
+        <v>17.84333741212275</v>
       </c>
       <c r="D9">
-        <v>4.614753228655371</v>
+        <v>4.116343728166592</v>
       </c>
       <c r="E9">
-        <v>32.94140957282742</v>
+        <v>33.04398820311501</v>
       </c>
       <c r="F9">
-        <v>19.85430217178764</v>
+        <v>22.98345331535855</v>
       </c>
       <c r="G9">
-        <v>2.06152701904097</v>
+        <v>2.058785775659262</v>
       </c>
       <c r="H9">
-        <v>3.688970248645137</v>
+        <v>3.753920340167167</v>
       </c>
       <c r="I9">
-        <v>3.5447492924246</v>
+        <v>3.714043418242903</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>11.58678339590977</v>
       </c>
       <c r="Q9">
-        <v>15.09616439954949</v>
+        <v>17.68518224625051</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,28 +851,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.05482127450283</v>
+        <v>26.03871136407511</v>
       </c>
       <c r="C10">
-        <v>22.928038186333</v>
+        <v>19.23416383004324</v>
       </c>
       <c r="D10">
-        <v>4.874742813704069</v>
+        <v>4.311185115942086</v>
       </c>
       <c r="E10">
-        <v>34.9646762972166</v>
+        <v>35.05051666660535</v>
       </c>
       <c r="F10">
-        <v>20.76645788651782</v>
+        <v>24.32600997702151</v>
       </c>
       <c r="G10">
-        <v>2.053507625778628</v>
+        <v>2.051226890993335</v>
       </c>
       <c r="H10">
-        <v>4.0828560900355</v>
+        <v>4.137073897476883</v>
       </c>
       <c r="I10">
-        <v>3.872324092016694</v>
+        <v>4.007321852824707</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>11.46189746524951</v>
       </c>
       <c r="Q10">
-        <v>15.44422833104606</v>
+        <v>18.44890189708534</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,28 +904,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.06280360374938</v>
+        <v>26.39814353220931</v>
       </c>
       <c r="C11">
-        <v>23.67909720321394</v>
+        <v>19.39037959456375</v>
       </c>
       <c r="D11">
-        <v>5.319755378876647</v>
+        <v>4.617656838781644</v>
       </c>
       <c r="E11">
-        <v>28.3645749766292</v>
+        <v>28.4413378963673</v>
       </c>
       <c r="F11">
-        <v>19.49143900051977</v>
+        <v>23.65465203734853</v>
       </c>
       <c r="G11">
-        <v>2.051789214662098</v>
+        <v>2.0498429246093</v>
       </c>
       <c r="H11">
-        <v>4.451631542486619</v>
+        <v>4.492300152688726</v>
       </c>
       <c r="I11">
-        <v>3.959039045160723</v>
+        <v>4.071110765071338</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>11.58943319410997</v>
       </c>
       <c r="Q11">
-        <v>14.22126316644512</v>
+        <v>17.73242486140492</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,28 +957,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.42548808711483</v>
+        <v>26.31017654352046</v>
       </c>
       <c r="C12">
-        <v>23.9023462235017</v>
+        <v>19.20337017689211</v>
       </c>
       <c r="D12">
-        <v>5.642827013362487</v>
+        <v>4.838017044454928</v>
       </c>
       <c r="E12">
-        <v>22.41126104158498</v>
+        <v>22.48597269447575</v>
       </c>
       <c r="F12">
-        <v>18.26442248682248</v>
+        <v>22.83200781241673</v>
       </c>
       <c r="G12">
-        <v>2.051750605528799</v>
+        <v>2.050003634790813</v>
       </c>
       <c r="H12">
-        <v>5.267815255078704</v>
+        <v>5.297414652992155</v>
       </c>
       <c r="I12">
-        <v>3.968982522168912</v>
+        <v>4.068682360689743</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>11.72926721177756</v>
       </c>
       <c r="Q12">
-        <v>13.1551535732224</v>
+        <v>16.98624232278696</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,28 +1010,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.32574147658034</v>
+        <v>25.84726470326447</v>
       </c>
       <c r="C13">
-        <v>23.8023350085204</v>
+        <v>18.77667581959529</v>
       </c>
       <c r="D13">
-        <v>5.904668838461662</v>
+        <v>5.01237998862362</v>
       </c>
       <c r="E13">
-        <v>16.48110235038558</v>
+        <v>16.56201812557444</v>
       </c>
       <c r="F13">
-        <v>16.90881854901085</v>
+        <v>21.78085996614549</v>
       </c>
       <c r="G13">
-        <v>2.053024761394272</v>
+        <v>2.051387570047776</v>
       </c>
       <c r="H13">
-        <v>6.295261935674344</v>
+        <v>6.317432706305129</v>
       </c>
       <c r="I13">
-        <v>3.922986396371375</v>
+        <v>4.017252459079821</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1052,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>11.88680967195127</v>
       </c>
       <c r="Q13">
-        <v>12.08345473812526</v>
+        <v>16.12346427244232</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,28 +1063,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.04587492091814</v>
+        <v>25.34308545040505</v>
       </c>
       <c r="C14">
-        <v>23.59796749859168</v>
+        <v>18.37350547551109</v>
       </c>
       <c r="D14">
-        <v>6.064911838226821</v>
+        <v>5.116182715614461</v>
       </c>
       <c r="E14">
-        <v>12.39948689670872</v>
+        <v>12.49264091669018</v>
       </c>
       <c r="F14">
-        <v>15.87950193874549</v>
+        <v>20.92278044868427</v>
       </c>
       <c r="G14">
-        <v>2.054486513402981</v>
+        <v>2.052888961639587</v>
       </c>
       <c r="H14">
-        <v>7.098170924744764</v>
+        <v>7.116731744846066</v>
       </c>
       <c r="I14">
-        <v>3.867096236766066</v>
+        <v>3.960504999053573</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>12.00576682982438</v>
       </c>
       <c r="Q14">
-        <v>11.32485027251851</v>
+        <v>15.45461220619254</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,28 +1116,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.8771560147254</v>
+        <v>25.13125716500807</v>
       </c>
       <c r="C15">
-        <v>23.49405501822589</v>
+        <v>18.23190355643588</v>
       </c>
       <c r="D15">
-        <v>6.093011043100423</v>
+        <v>5.132674718159113</v>
       </c>
       <c r="E15">
-        <v>11.41723285621635</v>
+        <v>11.51593739001252</v>
       </c>
       <c r="F15">
-        <v>15.5867530759949</v>
+        <v>20.65438187367861</v>
       </c>
       <c r="G15">
-        <v>2.055159410205087</v>
+        <v>2.053551800275636</v>
       </c>
       <c r="H15">
-        <v>7.282752320104646</v>
+        <v>7.300747388952847</v>
       </c>
       <c r="I15">
-        <v>3.841502725540322</v>
+        <v>3.9361343313207</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>12.0386306197751</v>
       </c>
       <c r="Q15">
-        <v>11.1299896727916</v>
+        <v>15.25954650730678</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,28 +1169,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.90608954675489</v>
+        <v>24.34195033592232</v>
       </c>
       <c r="C16">
-        <v>22.82702198544147</v>
+        <v>17.73640174565618</v>
       </c>
       <c r="D16">
-        <v>5.945605588702913</v>
+        <v>5.022720057685066</v>
       </c>
       <c r="E16">
-        <v>11.28027543478703</v>
+        <v>11.39309845988134</v>
       </c>
       <c r="F16">
-        <v>15.37602402775759</v>
+        <v>20.22206244717581</v>
       </c>
       <c r="G16">
-        <v>2.058301267800048</v>
+        <v>2.056465447626719</v>
       </c>
       <c r="H16">
-        <v>7.001793318481235</v>
+        <v>7.02225748233182</v>
       </c>
       <c r="I16">
-        <v>3.713436795145757</v>
+        <v>3.824142457375225</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>12.04649673184934</v>
       </c>
       <c r="Q16">
-        <v>11.15774339611703</v>
+        <v>15.06049289056866</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,28 +1222,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.29981657985098</v>
+        <v>24.00371943281733</v>
       </c>
       <c r="C17">
-        <v>22.41983437938699</v>
+        <v>17.57351854959033</v>
       </c>
       <c r="D17">
-        <v>5.742303216938881</v>
+        <v>4.880251754739056</v>
       </c>
       <c r="E17">
-        <v>13.38635553275821</v>
+        <v>13.4979010985307</v>
       </c>
       <c r="F17">
-        <v>15.7802112669253</v>
+        <v>20.36296271496995</v>
       </c>
       <c r="G17">
-        <v>2.059961030497345</v>
+        <v>2.057930077344666</v>
       </c>
       <c r="H17">
-        <v>6.307931783648366</v>
+        <v>6.332660876888924</v>
       </c>
       <c r="I17">
-        <v>3.644269112860384</v>
+        <v>3.767659763510585</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>11.99182856646824</v>
       </c>
       <c r="Q17">
-        <v>11.58299135364639</v>
+        <v>15.27309957087339</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,28 +1275,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.95452436606275</v>
+        <v>24.044348790412</v>
       </c>
       <c r="C18">
-        <v>22.16444665626625</v>
+        <v>17.66693945972051</v>
       </c>
       <c r="D18">
-        <v>5.465780429740172</v>
+        <v>4.693155499359199</v>
       </c>
       <c r="E18">
-        <v>17.95867208990727</v>
+        <v>18.0617373087299</v>
       </c>
       <c r="F18">
-        <v>16.78554409291046</v>
+        <v>21.03231258682181</v>
       </c>
       <c r="G18">
-        <v>2.060395421184307</v>
+        <v>2.058178860574236</v>
       </c>
       <c r="H18">
-        <v>5.266155076833628</v>
+        <v>5.299013535784304</v>
       </c>
       <c r="I18">
-        <v>3.619276282305147</v>
+        <v>3.754025291857811</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>11.87671840079358</v>
       </c>
       <c r="Q18">
-        <v>12.42595252609114</v>
+        <v>15.87749421297165</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,28 +1328,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.85164769548753</v>
+        <v>24.35879215894935</v>
       </c>
       <c r="C19">
-        <v>22.13903500602907</v>
+        <v>18.01543152623328</v>
       </c>
       <c r="D19">
-        <v>5.173506130908312</v>
+        <v>4.497482009348721</v>
       </c>
       <c r="E19">
-        <v>24.24597306498533</v>
+        <v>24.34212166184587</v>
       </c>
       <c r="F19">
-        <v>18.11461374072026</v>
+        <v>22.01514394023083</v>
       </c>
       <c r="G19">
-        <v>2.059659617645809</v>
+        <v>2.057304220750735</v>
       </c>
       <c r="H19">
-        <v>4.278060908810593</v>
+        <v>4.323344623511946</v>
       </c>
       <c r="I19">
-        <v>3.643304718169249</v>
+        <v>3.785884445289801</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>11.73771417547752</v>
       </c>
       <c r="Q19">
-        <v>13.49383433671839</v>
+        <v>16.70409758324919</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,28 +1381,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.43636915149335</v>
+        <v>25.46361636489998</v>
       </c>
       <c r="C20">
-        <v>22.61293314624111</v>
+        <v>18.95625835189501</v>
       </c>
       <c r="D20">
-        <v>4.829660403423384</v>
+        <v>4.273331612968068</v>
       </c>
       <c r="E20">
-        <v>34.40385939798826</v>
+        <v>34.4935351717964</v>
       </c>
       <c r="F20">
-        <v>20.3946872154569</v>
+        <v>23.8909754692182</v>
       </c>
       <c r="G20">
-        <v>2.0556477065682</v>
+        <v>2.053260626197614</v>
       </c>
       <c r="H20">
-        <v>3.977166495449919</v>
+        <v>4.03386592142914</v>
       </c>
       <c r="I20">
-        <v>3.792827574933824</v>
+        <v>3.935342292896853</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>11.50748466950926</v>
       </c>
       <c r="Q20">
-        <v>15.24019517860266</v>
+        <v>18.17589669579615</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,28 +1434,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.2128873691445</v>
+        <v>27.06302406206178</v>
       </c>
       <c r="C21">
-        <v>23.87180592760401</v>
+        <v>20.05080150246729</v>
       </c>
       <c r="D21">
-        <v>4.963924874935277</v>
+        <v>4.378876214376258</v>
       </c>
       <c r="E21">
-        <v>37.23156527326921</v>
+        <v>37.30861685159484</v>
       </c>
       <c r="F21">
-        <v>21.41888838623526</v>
+        <v>25.14104151860499</v>
       </c>
       <c r="G21">
-        <v>2.049227471009077</v>
+        <v>2.047180558833289</v>
       </c>
       <c r="H21">
-        <v>4.331854164063795</v>
+        <v>4.380770126744784</v>
       </c>
       <c r="I21">
-        <v>4.05173183932555</v>
+        <v>4.169007924582534</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>11.38581223215721</v>
       </c>
       <c r="Q21">
-        <v>15.78587279155189</v>
+        <v>18.95822593577839</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,28 +1487,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.32256361032284</v>
+        <v>28.05083845722103</v>
       </c>
       <c r="C22">
-        <v>24.6138801197208</v>
+        <v>20.6820002794959</v>
       </c>
       <c r="D22">
-        <v>5.059435747161129</v>
+        <v>4.453456234324586</v>
       </c>
       <c r="E22">
-        <v>38.57128553915183</v>
+        <v>38.6401310496351</v>
       </c>
       <c r="F22">
-        <v>22.03675548966449</v>
+        <v>25.90144730192458</v>
       </c>
       <c r="G22">
-        <v>2.045186385304464</v>
+        <v>2.043365079700162</v>
       </c>
       <c r="H22">
-        <v>4.540833089149837</v>
+        <v>4.584481656539372</v>
       </c>
       <c r="I22">
-        <v>4.212966268023601</v>
+        <v>4.313709910463947</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>11.31264952474652</v>
       </c>
       <c r="Q22">
-        <v>16.11096486298121</v>
+        <v>19.43138575637101</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,28 +1540,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.73534804202202</v>
+        <v>27.54557798507469</v>
       </c>
       <c r="C23">
-        <v>24.17410756943924</v>
+        <v>20.3181632356919</v>
       </c>
       <c r="D23">
-        <v>5.001185173529103</v>
+        <v>4.409673853925127</v>
       </c>
       <c r="E23">
-        <v>37.86180514530616</v>
+        <v>37.93528199551817</v>
       </c>
       <c r="F23">
-        <v>21.75145750447885</v>
+        <v>25.52562432809528</v>
       </c>
       <c r="G23">
-        <v>2.047321382313501</v>
+        <v>2.045373237940637</v>
       </c>
       <c r="H23">
-        <v>4.430018046149989</v>
+        <v>4.476635571788233</v>
       </c>
       <c r="I23">
-        <v>4.124763455075183</v>
+        <v>4.234884081058053</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>11.34622501537988</v>
       </c>
       <c r="Q23">
-        <v>15.97437081622241</v>
+        <v>19.20377684041285</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,28 +1593,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.41053052578191</v>
+        <v>25.51262758496888</v>
       </c>
       <c r="C24">
-        <v>22.52351586716033</v>
+        <v>18.93701595186494</v>
       </c>
       <c r="D24">
-        <v>4.786763194111646</v>
+        <v>4.245717152561948</v>
       </c>
       <c r="E24">
-        <v>35.06520157565711</v>
+        <v>35.15552401392027</v>
       </c>
       <c r="F24">
-        <v>20.60081722598498</v>
+        <v>24.03099774490324</v>
       </c>
       <c r="G24">
-        <v>2.055542008347234</v>
+        <v>2.053131939213595</v>
       </c>
       <c r="H24">
-        <v>4.002604939480796</v>
+        <v>4.059945008673057</v>
       </c>
       <c r="I24">
-        <v>3.79065573902421</v>
+        <v>3.934995918583402</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>11.48737804446741</v>
       </c>
       <c r="Q24">
-        <v>15.41479316140643</v>
+        <v>18.29734762139054</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,28 +1646,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.68629855093528</v>
+        <v>23.12287659847034</v>
       </c>
       <c r="C25">
-        <v>20.61659098146711</v>
+        <v>17.3406112688562</v>
       </c>
       <c r="D25">
-        <v>4.543036311527937</v>
+        <v>4.058593364205172</v>
       </c>
       <c r="E25">
-        <v>31.81296454054986</v>
+        <v>31.92129429900232</v>
       </c>
       <c r="F25">
-        <v>19.36590674883738</v>
+        <v>22.36976730959418</v>
       </c>
       <c r="G25">
-        <v>2.064667127147425</v>
+        <v>2.061772739636632</v>
       </c>
       <c r="H25">
-        <v>3.52510738843625</v>
+        <v>3.593540973059603</v>
       </c>
       <c r="I25">
-        <v>3.422478011629868</v>
+        <v>3.602901949824975</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>11.65009461266547</v>
       </c>
       <c r="Q25">
-        <v>14.85062811068665</v>
+        <v>17.31236120644557</v>
       </c>
     </row>
   </sheetData>
